--- a/ASP.NET CORE/OPerationManagerment/OPERATION_MNS_SYSTEM/OPERATION_MNS/wwwroot/templates/StandarQtyChip_Wafer_Template.xlsx
+++ b/ASP.NET CORE/OPerationManagerment/OPERATION_MNS_SYSTEM/OPERATION_MNS/wwwroot/templates/StandarQtyChip_Wafer_Template.xlsx
@@ -32,9 +32,6 @@
     <t>Module</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>Standard Q.ty</t>
+  </si>
+  <si>
+    <t>Model (Sap Code)</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -721,19 +721,19 @@
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75">
